--- a/Sample Data/Workflow Examples/Workflow 2 - Personalized Files/Keyword Expertise/3 Yetta Cisneros GrantMacEwanUniversity KeywordExpertise.xlsx
+++ b/Sample Data/Workflow Examples/Workflow 2 - Personalized Files/Keyword Expertise/3 Yetta Cisneros GrantMacEwanUniversity KeywordExpertise.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bvmm\Dropbox\Berts Files\Work in DROPBOX\CoSeT\GitHub Version\Sample Data\Sample 25P 10M 3C 4R\Keyword Expertise\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bvmm\Dropbox\Berts Files\Work in DROPBOX\CoSeT\GitHub Version\Sample Data\Workflow Examples\Workflow 2 - Personalized Files\Keyword Expertise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA8F8680-CB3B-4C05-B296-C5C7DFC9E8E5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE6C03A0-5C95-4991-AB2B-78A74C9F7107}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A4901D1C-24F2-4E46-8B6A-170F8BCBB1C4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{82BEA036-B1F1-4B05-B52A-1715785FCD80}"/>
   </bookViews>
   <sheets>
     <sheet name="Expertise by Keywords - Instr." sheetId="1" r:id="rId1"/>
@@ -42,13 +42,13 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={8B64E0B5-98D8-4EAD-918F-24F9508A4895}</author>
-    <author>tc={76C10373-1E7C-4482-8DB2-CA61990793B1}</author>
-    <author>tc={75E4071E-FD3C-4959-AA95-BE188ABAACA5}</author>
-    <author>tc={18B60A1C-BF3E-45E2-B752-3A43D856DA4A}</author>
+    <author>tc={2DC00B4C-A531-42F3-88CC-08B0698F3290}</author>
+    <author>tc={2998D77D-9AD0-465D-8D9F-A2D3FE2852E3}</author>
+    <author>tc={61AB5E90-584B-4904-981C-0C08A3A11C3D}</author>
+    <author>tc={5D4C2450-DAD7-4366-BA02-A7AF41026E6E}</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{8B64E0B5-98D8-4EAD-918F-24F9508A4895}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{2DC00B4C-A531-42F3-88CC-08B0698F3290}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -56,7 +56,7 @@
     Revise or delete column &amp; header.</t>
       </text>
     </comment>
-    <comment ref="D1" authorId="1" shapeId="0" xr:uid="{76C10373-1E7C-4482-8DB2-CA61990793B1}">
+    <comment ref="D1" authorId="1" shapeId="0" xr:uid="{2998D77D-9AD0-465D-8D9F-A2D3FE2852E3}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -64,7 +64,7 @@
     Add or subtract columns as you want.</t>
       </text>
     </comment>
-    <comment ref="E1" authorId="2" shapeId="0" xr:uid="{75E4071E-FD3C-4959-AA95-BE188ABAACA5}">
+    <comment ref="E1" authorId="2" shapeId="0" xr:uid="{61AB5E90-584B-4904-981C-0C08A3A11C3D}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -72,7 +72,7 @@
     Revise or delete column &amp; header.</t>
       </text>
     </comment>
-    <comment ref="F1" authorId="3" shapeId="0" xr:uid="{18B60A1C-BF3E-45E2-B752-3A43D856DA4A}">
+    <comment ref="F1" authorId="3" shapeId="0" xr:uid="{5D4C2450-DAD7-4366-BA02-A7AF41026E6E}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="105">
   <si>
     <t>There are two sheets for you to complete. One the next sheet, please indicate your level of confidence in scoring proposals that focus on the indicated keywords. Score your confidence as: High (H), Medium (M) or Low (L).
 On the last sheet, please indicate if you are in conflict of interest with any of the projects submitted. 
@@ -429,9 +429,6 @@
   </si>
   <si>
     <t>M</t>
-  </si>
-  <si>
-    <t>H</t>
   </si>
 </sst>
 </file>
@@ -667,7 +664,7 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="bert van den Berg" id="{F5C32B7B-1A75-4A97-91CE-59FE4B3FBC2E}" userId="ee31b047394a070d" providerId="Windows Live"/>
+  <person displayName="bert van den Berg" id="{442570E4-67E0-44DB-B1D0-1B9E2126EC0B}" userId="ee31b047394a070d" providerId="Windows Live"/>
 </personList>
 </file>
 
@@ -968,23 +965,23 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="C1" dT="2021-01-28T13:53:38.10" personId="{F5C32B7B-1A75-4A97-91CE-59FE4B3FBC2E}" id="{8B64E0B5-98D8-4EAD-918F-24F9508A4895}">
+  <threadedComment ref="C1" dT="2021-01-28T13:53:38.10" personId="{442570E4-67E0-44DB-B1D0-1B9E2126EC0B}" id="{2DC00B4C-A531-42F3-88CC-08B0698F3290}">
     <text>Revise or delete column &amp; header.</text>
   </threadedComment>
-  <threadedComment ref="D1" dT="2021-01-28T13:53:13.01" personId="{F5C32B7B-1A75-4A97-91CE-59FE4B3FBC2E}" id="{76C10373-1E7C-4482-8DB2-CA61990793B1}">
+  <threadedComment ref="D1" dT="2021-01-28T13:53:13.01" personId="{442570E4-67E0-44DB-B1D0-1B9E2126EC0B}" id="{2998D77D-9AD0-465D-8D9F-A2D3FE2852E3}">
     <text>Add or subtract columns as you want.</text>
   </threadedComment>
-  <threadedComment ref="E1" dT="2021-01-28T13:53:53.73" personId="{F5C32B7B-1A75-4A97-91CE-59FE4B3FBC2E}" id="{75E4071E-FD3C-4959-AA95-BE188ABAACA5}">
+  <threadedComment ref="E1" dT="2021-01-28T13:53:53.73" personId="{442570E4-67E0-44DB-B1D0-1B9E2126EC0B}" id="{61AB5E90-584B-4904-981C-0C08A3A11C3D}">
     <text>Revise or delete column &amp; header.</text>
   </threadedComment>
-  <threadedComment ref="F1" dT="2021-01-28T13:47:47.80" personId="{F5C32B7B-1A75-4A97-91CE-59FE4B3FBC2E}" id="{18B60A1C-BF3E-45E2-B752-3A43D856DA4A}">
+  <threadedComment ref="F1" dT="2021-01-28T13:47:47.80" personId="{442570E4-67E0-44DB-B1D0-1B9E2126EC0B}" id="{5D4C2450-DAD7-4366-BA02-A7AF41026E6E}">
     <text>Do not edit the text in this cell</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CB2437A-1880-4764-B05A-662694911DBA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09F66667-95FA-4E1C-B2B9-D621F41EDCAE}">
   <sheetPr codeName="Sheet24">
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
@@ -1026,7 +1023,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52F60E4C-AEBB-4423-B839-43881B9F2022}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE33CFD0-39FA-4C95-9C29-9F70A1879F54}">
   <sheetPr codeName="Sheet11">
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
@@ -1034,7 +1031,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="A10" sqref="A10:K10"/>
       <selection pane="bottomLeft" activeCell="F2" sqref="F2:F26"/>
     </sheetView>
   </sheetViews>
@@ -1541,7 +1538,7 @@
       <c r="F26" s="27"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="g9P0I3IcDjCl/r1Mu9CYw/A9h4UVK5KgbH1r6zD+sxEG5CWzWvUqG7Ju6H35TrGelBN9j4T2xxXxAuMeixCH8A==" saltValue="/yhr6448qx/jHs9isbe0fg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="wU0O2+r2imWXud4XTniYr53LFRuoBo1tfXo/b70RfqDJAgZb5igUPT5mMMackHkL5t8Nw3XVLTmn8iXiXpwuQw==" saltValue="VXGNWoHcnkXkORyZSBOKgg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <autoFilter ref="F1:F2" xr:uid="{2C882CF7-77D0-4BB2-911E-FEB4C8572A61}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1550,7 +1547,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{564B3EC4-9150-404F-838E-0C837736C2E4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40DBBC69-AE50-48F8-9464-673A4B006AAB}">
   <sheetPr codeName="Sheet25">
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
@@ -1558,7 +1555,7 @@
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="A10" sqref="A10:K10"/>
       <selection pane="bottomLeft" activeCell="C2" sqref="C2:C101"/>
     </sheetView>
   </sheetViews>
@@ -1597,7 +1594,9 @@
       <c r="B2" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="28"/>
+      <c r="C2" s="28" t="s">
+        <v>103</v>
+      </c>
       <c r="D2" s="7"/>
       <c r="E2" s="8" t="s">
         <v>4</v>
@@ -1613,9 +1612,7 @@
       <c r="B3" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="28" t="s">
-        <v>103</v>
-      </c>
+      <c r="C3" s="28"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="15">
@@ -1646,9 +1643,7 @@
       <c r="B6" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="28" t="s">
-        <v>104</v>
-      </c>
+      <c r="C6" s="28"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="15">
@@ -1658,7 +1653,7 @@
         <v>16</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1699,7 +1694,9 @@
       <c r="B11" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="28"/>
+      <c r="C11" s="28" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="15">
@@ -1978,7 +1975,7 @@
       <c r="C101" s="29"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="7sRlAXTGIAcozRFojS+oL84W4nKtE5MPS+ftEg6mnnmRi6MvHPGSZvHp4gMm89KyW8/o+tAJCYL3XYXByGZ+9Q==" saltValue="7mqxk+RizKcNzwzRcVjcAw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="5pYtlZTlYfF4/lJjFdQWWh8HrfrOnoAdMrj9EZvnH312oRkcqCxMi/RRqZf2II7AtMU2gzGiPEIYUtg3Xh3Yrw==" saltValue="u6VFec9kamX7UCL6t8gshA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <autoFilter ref="C1:C12" xr:uid="{2C882CF7-77D0-4BB2-911E-FEB4C8572A61}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
